--- a/data/trans_orig/P14C30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18A9411B-7D66-425B-99C3-BC10DB2BF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B650878-CD8B-443A-9471-39A54FD06C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E10BFB13-7D84-482F-B17A-397A848FDFAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14552825-3457-453D-A2FC-3B9BF1F50F31}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>89,67%</t>
+    <t>81,65%</t>
   </si>
   <si>
     <t>83,86%</t>
@@ -92,10 +92,10 @@
     <t>63,8%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,7 +104,7 @@
     <t>61,94%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>18,35%</t>
   </si>
   <si>
     <t>16,14%</t>
@@ -116,10 +116,10 @@
     <t>36,2%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -146,7 +146,7 @@
     <t>36,82%</t>
   </si>
   <si>
-    <t>92,16%</t>
+    <t>91,01%</t>
   </si>
   <si>
     <t>75,13%</t>
@@ -158,31 +158,34 @@
     <t>69,12%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>55,67%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>33,62%</t>
+    <t>36,0%</t>
   </si>
   <si>
     <t>24,87%</t>
@@ -194,7 +197,7 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>45,01%</t>
+    <t>38,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -203,7 +206,7 @@
     <t>45,1%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>11,58%</t>
   </si>
   <si>
     <t>51,05%</t>
@@ -212,16 +215,13 @@
     <t>46,41%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>77,8%</t>
+    <t>87,58%</t>
   </si>
   <si>
     <t>48,95%</t>
@@ -230,13 +230,13 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>79,03%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>85,46%</t>
+    <t>73,86%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -245,79 +245,79 @@
     <t>21,2%</t>
   </si>
   <si>
-    <t>71,04%</t>
+    <t>71,49%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D8B892-37B8-4CA0-BCE2-AEA4AEA269D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5556D02-EFA2-483D-8573-FD9740649552}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1116,10 +1116,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>3186</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1164,13 +1164,13 @@
         <v>924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1179,13 +1179,13 @@
         <v>1347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1194,13 +1194,13 @@
         <v>2271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1268,10 +1268,10 @@
         <v>2871</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>16</v>
@@ -1283,7 +1283,7 @@
         <v>922</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
@@ -1298,13 +1298,13 @@
         <v>3794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14C30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B650878-CD8B-443A-9471-39A54FD06C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D0BB64-C95F-4711-BCD6-A3D1C2A1A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14552825-3457-453D-A2FC-3B9BF1F50F31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E4A60E1-BDA2-41D1-BA24-497D1FF093E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cirrosis en 2016 (Tasa respuesta: 0,5%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>38,25%</t>
+    <t>38,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>63,8%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,22 +104,22 @@
     <t>61,94%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>61,73%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,61 +143,61 @@
     <t>66,46%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>15,68%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>36,0%</t>
+    <t>33,66%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>83,5%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>38,32%</t>
+    <t>38,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -206,7 +206,7 @@
     <t>45,1%</t>
   </si>
   <si>
-    <t>11,58%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>51,05%</t>
@@ -215,13 +215,16 @@
     <t>46,41%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>87,58%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>48,95%</t>
@@ -230,7 +233,7 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>77,03%</t>
   </si>
   <si>
     <t>27,22%</t>
@@ -245,79 +248,79 @@
     <t>21,2%</t>
   </si>
   <si>
-    <t>71,49%</t>
+    <t>71,18%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>40,02%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5556D02-EFA2-483D-8573-FD9740649552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CFEA3-9872-4658-8CC1-55B594E32446}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1304,7 +1307,7 @@
         <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1319,13 +1322,13 @@
         <v>1763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1334,7 +1337,7 @@
         <v>885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1349,13 +1352,13 @@
         <v>2647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,13 +1373,13 @@
         <v>1733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1391,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1400,13 +1403,13 @@
         <v>1733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,13 +1477,13 @@
         <v>12943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1489,13 +1492,13 @@
         <v>10440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1504,13 +1507,13 @@
         <v>23382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1528,13 @@
         <v>8085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1540,13 +1543,13 @@
         <v>1933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1555,13 +1558,13 @@
         <v>10018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,13 +1579,13 @@
         <v>2657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1591,13 +1594,13 @@
         <v>1347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1606,13 +1609,13 @@
         <v>4004</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,7 +1671,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
